--- a/Modeling/hw_set2.xlsx
+++ b/Modeling/hw_set2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SVGS-FP\Staff\tylera\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylera\OneDrive - Shenandoah Valley Governor's School\Math Modeling\My Course\2 - Discrete Dynamic Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1284882-1E36-4745-A6F4-6AE6FEB75854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F1284882-1E36-4745-A6F4-6AE6FEB75854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{25B5FD3F-8CDE-4F57-B97E-C928D9B0E41E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="11310" activeTab="1" xr2:uid="{73A07B6D-8716-4A24-A5A5-878252595ED9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>years_since_1814</t>
   </si>
@@ -34,10 +34,10 @@
     <t>population</t>
   </si>
   <si>
-    <t>years_since_1790</t>
+    <t>change_in_population</t>
   </si>
   <si>
-    <t>change_in_population</t>
+    <t>years_since_1790_inc10</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>275</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">B4-B3</f>
+        <f t="shared" ref="C3:C6" si="0">B4-B3</f>
         <v>555</v>
       </c>
     </row>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +496,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,19 +519,19 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>5308000</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">B4-B3</f>
+        <f t="shared" ref="C3:C23" si="0">B4-B3</f>
         <v>1932000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>7240000</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>9638000</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>12866000</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>17069000</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>23192000</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>31443000</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>38558000</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>50156000</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>62948000</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>75995000</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>91972000</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>105711000</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>122755000</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>131669000</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>150697000</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>179323000</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>203212000</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>226505000</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>248710000</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>281416000</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>308746000</v>
